--- a/[3] Test Input/RESULTS_MT10_ASR_control.xlsx
+++ b/[3] Test Input/RESULTS_MT10_ASR_control.xlsx
@@ -523,47 +523,47 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[12, 12, 12, 12, 12]</t>
+          <t>[2, 2, 2, 2, 2]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[30, 30, 30, 30, 30]</t>
+          <t>[32, 32, 30, 32, 18]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[18, 18, 18, 18, 18]</t>
+          <t>[30, 30, 28, 30, 16]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[63, 64, 54, 77, 51]</t>
+          <t>[25, 27, 22, 32, 22]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[63.05, 64.05, 54.31999999999999, 77.8, 51.65]</t>
+          <t>[25.38432536246007, 25.65562228907383, 22.637424771691286, 30.20702925634899, 21.055345419588107]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[57.349999999999994, 55.33, 49.629999999999995, 63.379999999999995, 44.61]</t>
+          <t>[24.488733549795544, 20.792596898080696, 21.90925965538881, 30.20702925634899, 17.112852241244006]</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[25.04, 26.29, 21.15, 32.36, 19.66]</t>
+          <t>[7.64, 9.42, 6.71, 10.23, 7.58]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[178.67, 148.91, 169.23, 169.88, 149.23]</t>
+          <t>[30.78, 26.14, 20.41, 18.78, 33.41]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[6660.57, 7109.86, 5515.95, 8642.13, 4715.64]</t>
+          <t>[818.58, 927.47, 741.52, 875.51, 1108.61]</t>
         </is>
       </c>
     </row>
@@ -590,47 +590,47 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[10, 10, 10, 10, 10]</t>
+          <t>[2, 2, 2, 2, 2]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[32, 30, 30, 52, 18]</t>
+          <t>[18, 18, 18, 18, 18]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[22, 20, 20, 42, 8]</t>
+          <t>[16, 16, 16, 16, 16]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[123, 142, 167, 224, 157]</t>
+          <t>[72, 62, 75, 85, 90]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[123.75, 142.53, 167.34, 177.74, 157.95]</t>
+          <t>[67.33186921398152, 59.51588660241525, 75.09303114367599, 84.06926227586692, 90.09334089904041]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[118.05, 133.81, 138.17, 191.83, 139.83999999999997]</t>
+          <t>[59.46740559373287, 56.13682270742888, 63.48661924788408, 79.36716310901421, 73.45837648739328]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[48.64, 58.69, 73.58, 93.13, 59.9]</t>
+          <t>[22.67, 20.93, 25.43, 30.5, 26.25]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[103.63, 130.47, 150.6, 140.83, 114.34]</t>
+          <t>[53.6, 47.55, 46.6, 60.98, 43.33]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[10724.99, 13970.76, 18301.42, 21306.32, 15288.08]</t>
+          <t>[3563.43, 3106.72, 3724.65, 5078.9, 3702.37]</t>
         </is>
       </c>
     </row>
@@ -657,47 +657,47 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[10, 10, 10, 10, 10]</t>
+          <t>[2, 2, 2, 2, 2]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[30, 30, 30, 30, 30]</t>
+          <t>[30, 18, 18, 32, 18]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[20, 20, 20, 20, 20]</t>
+          <t>[28, 16, 16, 30, 16]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[156, 122, 124, 103, 135]</t>
+          <t>[60, 60, 49, 44, 57]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[156.61, 122.39999999999999, 124.42, 102.96, 134.81]</t>
+          <t>[59.56011157592228, 57.705863846748755, 47.877359897819126, 42.916255694684374, 56.3731671608812]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[148.56, 110.33, 121.4, 86.19, 130.12]</t>
+          <t>[56.6261127928761, 46.34200643515348, 47.40829497955933, 39.05171785185907, 50.23895179892441]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[59.73, 46.61, 46.73, 37.19, 53.52]</t>
+          <t>[20.75, 19.41, 17.12, 13.89, 18.97]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[96.55, 101.58, 107.66, 116.26, 111.92]</t>
+          <t>[30.32, 51.62, 36.98, 13.88, 38.3]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[12520.05, 9353.35, 10120.65, 8839.59, 13101.93]</t>
+          <t>[2140.69, 3012.86, 2391.2, 1029.9, 2596.43]</t>
         </is>
       </c>
     </row>
@@ -724,47 +724,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[10, 12, 12, 12, 10]</t>
+          <t>[2, 2, 2, 2, 2]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[30, 30, 30, 30, 30]</t>
+          <t>[30, 32, 32, 32, 30]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[20, 18, 18, 18, 20]</t>
+          <t>[28, 30, 30, 30, 28]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[102, 72, 90, 89, 88]</t>
+          <t>[43, 30, 39, 37, 36]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[102.62, 72.77, 89.86999999999999, 89.88, 88.2]</t>
+          <t>[41.12019646503102, 30.452316091004946, 39.61350580288511, 34.98393766149912, 35.93257314412856]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[90.21000000000001, 70.08999999999999, 74.10999999999999, 72.78, 80.49000000000001]</t>
+          <t>[41.12019646503102, 30.452316091004946, 38.74762774826288, 33.00498265175969, 35.93257314412856]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[42.11, 26.42, 32.2, 36.37, 34.69]</t>
+          <t>[12.88, 8.72, 12.02, 12.79, 10.85]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[184.2, 152.52, 118.97, 126.79, 138.36]</t>
+          <t>[26.48, 17.47, 30.99, 27.69, 17.31]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[11440.56, 6730.64, 7985.76, 9377.2, 8759.65]</t>
+          <t>[1371.13, 884.79, 1247.49, 1375.47, 1210.83]</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[12, 12, 12, 12, 10]</t>
+          <t>[2, 2, 2, 2, 2]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[30, 30, 30, 32, 30]</t>
+          <t>[32, 32, 32, 32, 32]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[18, 18, 18, 20, 20]</t>
+          <t>[30, 30, 30, 30, 30]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[65, 79, 95, 59, 82]</t>
+          <t>[27, 31, 37, 25, 33]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[64.72, 79.82, 95.57, 59.02, 82.5]</t>
+          <t>[26.93527658653701, 31.360505336293844, 37.15048993961251, 22.78345483947321, 33.646009330555955]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[52.99, 67.08000000000001, 78.14, 55.0, 71.75999999999999]</t>
+          <t>[24.9431190778128, 29.708568802965726, 37.15048993961251, 20.42170865310544, 27.53495970897432]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[26.46, 33.46, 42.04, 25.12, 34.3]</t>
+          <t>[8.71, 10.11, 12.69, 8.94, 11.39]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>[146.91, 166.95, 175.79, 161.36, 186.82]</t>
+          <t>[17.57, 27.0, 29.16, 29.58, 27.47]</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[7403.31, 9442.43, 12152.09, 7000.86, 9998.69]</t>
+          <t>[957.09, 1050.31, 1388.3, 1021.22, 1084.77]</t>
         </is>
       </c>
     </row>
@@ -858,47 +858,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[10, 12, 10]</t>
+          <t>[2, 4, 2]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[30, 30, 18]</t>
+          <t>[32, 30, 18]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[20, 18, 8]</t>
+          <t>[30, 26, 16]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[162, 62, 177]</t>
+          <t>[66, 27, 89]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[162.64, 62.04, 177.06]</t>
+          <t>[65.91728336018656, 26.397321755142094, 83.92468097205786]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[136.82, 58.69, 170.36]</t>
+          <t>[60.82418214033048, 25.667769647892197, 83.05649496134936]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[66.49, 24.23, 77.35]</t>
+          <t>[23.11, 8.01, 26.53]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>[156.36, 125.9, 157.78]</t>
+          <t>[43.79, 14.64, 37.45]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[17902.09, 6188.85, 22488.88]</t>
+          <t>[2661.69, 1244.46, 3566.88]</t>
         </is>
       </c>
     </row>
@@ -925,47 +925,47 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[10, 10, 12, 10]</t>
+          <t>[2, 2, 2, 2]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[54, 32, 30, 30]</t>
+          <t>[18, 34, 32, 32]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[44, 22, 18, 20]</t>
+          <t>[16, 32, 30, 30]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[135, 94, 101, 65]</t>
+          <t>[72, 41, 43, 30]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[118.38, 94.22999999999999, 101.28, 65.39]</t>
+          <t>[66.08783773399121, 38.71454946791789, 41.95894556339081, 30.351612888224714]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[121.4, 87.19, 85.18, 52.650000000000006]</t>
+          <t>[66.08783773399121, 31.639282290600583, 39.544197764736, 28.576996662999267]</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[56.37, 38.79, 39.71, 26.27]</t>
+          <t>[22.96, 14.25, 12.86, 8.7]</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>[107.65, 134.35, 133.92, 238.14]</t>
+          <t>[63.76, 25.63, 22.53, 11.47]</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[12034.39, 10682.48, 10789.59, 9519.24]</t>
+          <t>[3612.15, 1392.28, 1309.96, 1199.78]</t>
         </is>
       </c>
     </row>
@@ -992,47 +992,47 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[10, 10, 10, 10, 10]</t>
+          <t>[2, 2, 2, 2, 2]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[30, 52, 30, 30, 30]</t>
+          <t>[18, 18, 18, 34, 18]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[20, 42, 20, 20, 20]</t>
+          <t>[16, 16, 16, 32, 16]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[248, 254, 252, 281, 245]</t>
+          <t>[96, 100, 97, 138, 106]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[248.5, 245.81, 252.52, 280.69, 244.81]</t>
+          <t>[95.3795264551288, 100.27729525471257, 90.03549800091675, 135.7353606553156, 103.47302644997546]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[231.06, 234.42, 228.71, 247.82999999999998, 209.26999999999998]</t>
+          <t>[75.99373125427044, 80.33373257947517, 80.27475339655322, 115.13509343382337, 98.63758955116539]</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>[109.86, 108.26, 102.48, 91.13, 88.4]</t>
+          <t>[36.84, 37.63, 35.66, 46.66, 35.78]</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>[97.87, 86.14, 96.2, 57.43, 78.4]</t>
+          <t>[51.97, 48.92, 43.66, 27.12, 42.23]</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[25333.35, 19472.88, 22519.67, 17349.13, 18146.71]</t>
+          <t>[5990.67, 5978.77, 5191.62, 4329.52, 5682.66]</t>
         </is>
       </c>
     </row>
@@ -1059,47 +1059,47 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[12, 12, 12, 12, 12]</t>
+          <t>[2, 2, 2, 2, 2]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[20, 32, 32, 32, 32]</t>
+          <t>[20, 18, 18, 18, 18]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[8, 20, 20, 20, 20]</t>
+          <t>[18, 16, 16, 16, 16]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[153, 139, 86, 83, 89]</t>
+          <t>[84, 73, 47, 42, 43]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[153.25, 139.84, 86.86, 83.5, 89.88]</t>
+          <t>[81.20235566271414, 69.38793486353342, 44.29834017062474, 39.542181751975576, 41.289888007884194]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[136.83, 131.12, 74.45, 81.49, 74.78999999999999]</t>
+          <t>[81.20235566271414, 69.38793486353342, 40.99997254031807, 39.542181751975576, 41.22979718486903]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[51.32, 51.31, 33.42, 29.95, 32.92]</t>
+          <t>[26.16, 22.36, 14.24, 12.56, 13.97]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[66.19, 149.24, 136.96, 119.57, 122.64]</t>
+          <t>[49.55, 31.15, 32.43, 27.35, 29.18]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[9210.25, 11967.7, 8353.87, 7236.29, 7976.0]</t>
+          <t>[3851.49, 3016.02, 2245.7, 1747.31, 1891.65]</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[10, 10, 10, 10, 4]</t>
+          <t>[2, 2, 2, 2, 2]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[30, 52, 52, 30, 30]</t>
+          <t>[18, 18, 18, 16, 18]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[20, 42, 42, 20, 26]</t>
+          <t>[16, 16, 16, 14, 16]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[143, 145, 179, 144, 94]</t>
+          <t>[62, 62, 67, 58, 44]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[142.86, 139.85000000000002, 175.06, 144.87, 94.24]</t>
+          <t>[62.37045768848734, 60.662502415840336, 66.47860825427651, 56.93378271095315, 42.86550483082758]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[137.16, 142.20000000000002, 162.98000000000002, 117.38, 85.52]</t>
+          <t>[57.55167726080439, 59.93165715923392, 57.56533219867126, 56.93378271095315, 38.7553861831861]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[66.87, 63.95, 84.44, 62.68, 42.32]</t>
+          <t>[21.37, 21.37, 24.93, 20.33, 13.67]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[159.44, 129.25, 164.77, 127.99, 178.95]</t>
+          <t>[48.09, 51.85, 50.4, 38.86, 35.65]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[19307.48, 15102.75, 21277.59, 17128.76, 12643.55]</t>
+          <t>[3088.05, 3300.27, 3979.53, 2981.17, 1952.73]</t>
         </is>
       </c>
     </row>
@@ -1193,47 +1193,47 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[10, 10, 4, 10]</t>
+          <t>[2, 4, 2, 2]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[30, 28, 30, 30]</t>
+          <t>[30, 30, 32, 18]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[20, 18, 26, 20]</t>
+          <t>[28, 26, 30, 16]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[133, 66, 95, 112]</t>
+          <t>[53, 27, 40, 54]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[133.47, 66.06, 95.24, 112.34]</t>
+          <t>[51.81049156540605, 27.108129348238954, 39.041522902292634, 53.96587962930976]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[120.06, 59.02, 80.47999999999999, 93.22999999999999]</t>
+          <t>[49.848754804992986, 25.044080715223387, 37.58861993140807, 43.31543239264254]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[57.04, 27.32, 38.77, 50.07]</t>
+          <t>[16.72, 8.04, 13.9, 17.99]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>[165.43, 148.42, 169.4, 185.91]</t>
+          <t>[22.22, 61.81, 29.93, 39.99]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[16651.44, 8307.94, 11338.98, 15246.0]</t>
+          <t>[1853.96, 1468.77, 1860.87, 2474.69]</t>
         </is>
       </c>
     </row>
@@ -1260,47 +1260,47 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[10, 10, 10, 10, 10]</t>
+          <t>[2, 2, 2, 2, 2]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[30, 30, 18, 30, 32]</t>
+          <t>[30, 18, 20, 18, 32]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[20, 20, 8, 20, 22]</t>
+          <t>[28, 16, 18, 16, 30]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[315, 290, 327, 241, 111]</t>
+          <t>[204, 139, 190, 103, 54]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[315.57, 290.08, 326.97, 240.78, 111.0]</t>
+          <t>[202.54609985741786, 121.21440387583445, 172.6694557491748, 102.95230070403932, 51.915759897970574]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[297.8, 276.33, 315.91, 207.59, 101.95]</t>
+          <t>[164.15409737290275, 109.53324350786829, 168.31137431660648, 82.5716887489271, 49.205638414600955]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[86.08, 115.09, 86.74, 107.95, 42.2]</t>
+          <t>[62.38, 47.13, 59.88, 36.18, 16.11]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>[12.11, 148.28, 28.39, 193.14, 267.87]</t>
+          <t>[20.66, 41.61, 31.88, 42.33, 24.3]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[10586.08, 31360.19, 16361.55, 31654.02, 12759.52]</t>
+          <t>[4677.17, 6660.5, 6380.36, 5177.92, 2553.56]</t>
         </is>
       </c>
     </row>
@@ -1327,47 +1327,47 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[12, 12, 14, 26]</t>
+          <t>[2, 2, 2, 8]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[32, 32, 32, 54]</t>
+          <t>[32, 34, 32, 40]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[20, 20, 18, 28]</t>
+          <t>[30, 32, 30, 32]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[95, 63, 45, 20]</t>
+          <t>[44, 25, 20, 9]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[95.24, 63.05, 44.93, 18.45]</t>
+          <t>[43.96099362509933, 25.00110396943478, 18.895587863112098, 9.440221313030001]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[90.53999999999999, 62.04, 41.92, 18.45]</t>
+          <t>[43.94096479038257, 21.76242034320508, 17.78847674177972, 7.840086598496155]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[36.0, 26.11, 18.89, 6.54]</t>
+          <t>[12.64, 8.27, 5.99, 3.16]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>[163.64, 312.79, 294.53, 39.58]</t>
+          <t>[14.54, 21.45, 10.38, 36.61]</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[10517.66, 8584.86, 5741.35, 1567.03]</t>
+          <t>[999.47, 894.71, 872.19, 834.45]</t>
         </is>
       </c>
     </row>
@@ -1394,47 +1394,47 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[10, 10, 12, 10, 10]</t>
+          <t>[2, 2, 2, 2, 2]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[30, 30, 30, 52, 30]</t>
+          <t>[18, 18, 32, 16, 18]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[20, 20, 18, 42, 20]</t>
+          <t>[16, 16, 30, 14, 16]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[194, 195, 153, 237, 201]</t>
+          <t>[90, 94, 60, 103, 87]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[193.82999999999998, 195.51, 153.59, 227.37, 201.54999999999998]</t>
+          <t>[86.94759913462204, 85.59668937837321, 59.57400176247319, 99.22199192144107, 80.06146997318687]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[167.35, 187.13, 133.47, 206.25, 173.71999999999997]</t>
+          <t>[79.49641819190725, 75.02406972567583, 53.70460585858445, 96.80713227039257, 80.06146997318687]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[79.4, 79.95, 66.64, 107.79, 84.1]</t>
+          <t>[30.19, 30.76, 20.74, 35.36, 28.84]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>[139.06, 185.13, 170.87, 158.23, 213.74]</t>
+          <t>[37.96, 34.03, 24.42, 46.47, 31.68]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[19618.35, 21475.63, 19801.45, 27141.15, 23512.18]</t>
+          <t>[3790.51, 3765.53, 1971.07, 5051.8, 3597.65]</t>
         </is>
       </c>
     </row>
@@ -1461,47 +1461,47 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[10, 10, 10]</t>
+          <t>[2, 2, 2]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[32, 30, 30]</t>
+          <t>[20, 20, 30]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[22, 20, 20]</t>
+          <t>[18, 18, 28]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[191, 176, 143]</t>
+          <t>[104, 96, 71]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[191.48, 176.06, 143.87]</t>
+          <t>[103.81625057935068, 94.29757046135254, 68.9061928727269]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[162.64, 149.9, 126.77000000000001]</t>
+          <t>[101.83566817746512, 80.93849890669092, 59.20417353182569]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[55.95, 54.12, 40.65]</t>
+          <t>[32.83, 29.46, 22.16]</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>[35.97, 41.83, 44.92]</t>
+          <t>[31.87, 42.02, 17.79]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[8717.4, 8941.41, 7416.1]</t>
+          <t>[3984.16, 3663.98, 2348.84]</t>
         </is>
       </c>
     </row>
@@ -1528,47 +1528,47 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[10, 10, 10, 10, 10]</t>
+          <t>[2, 2, 2, 2, 2]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[30, 30, 30, 30, 30]</t>
+          <t>[30, 30, 18, 32, 32]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[20, 20, 20, 20, 20]</t>
+          <t>[28, 28, 16, 30, 30]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[133, 149, 131, 121, 121]</t>
+          <t>[50, 55, 49, 47, 47]</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[133.14, 149.23, 131.46, 121.4, 121.06]</t>
+          <t>[50.24312354134072, 55.47360611191227, 49.20532843477744, 46.66567113454356, 47.57247947680062]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[119.05000000000001, 147.22, 111.0, 113.02000000000001, 114.02]</t>
+          <t>[50.24312354134072, 55.47360611191227, 48.08882811168373, 46.66567113454356, 47.57247947680062]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[55.12, 63.61, 55.82, 47.05, 47.14]</t>
+          <t>[17.54, 18.87, 18.02, 15.11, 15.07]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>[127.21, 139.1, 166.57, 131.26, 123.45]</t>
+          <t>[26.3, 23.1, 46.56, 26.01, 29.97]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[12852.88, 15356.48, 13938.68, 10942.09, 10826.08]</t>
+          <t>[1832.66, 1612.2, 2605.52, 1368.06, 1478.62]</t>
         </is>
       </c>
     </row>
@@ -1595,47 +1595,47 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[12, 12, 12, 12, 10]</t>
+          <t>[2, 2, 2, 2, 2]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[30, 32, 32, 32, 30]</t>
+          <t>[18, 18, 32, 32, 30]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[18, 20, 20, 20, 20]</t>
+          <t>[16, 16, 30, 30, 28]</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[75, 106, 124, 109, 166]</t>
+          <t>[33, 51, 52, 46, 63]</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[75.46, 106.98, 124.42, 109.66, 166.32999999999998]</t>
+          <t>[33.01268612137392, 50.202879651179046, 51.33451351031718, 45.80902315080341, 60.56684439617493]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[61.36999999999999, 94.24000000000001, 110.67, 105.97, 166.32999999999998]</t>
+          <t>[26.993265754658037, 43.048422029936006, 51.33451351031718, 45.80902315080341, 57.097081766551256]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[29.76, 48.2, 49.47, 44.53, 68.53]</t>
+          <t>[11.31, 17.25, 16.1, 15.28, 20.09]</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>[130.01, 149.69, 141.15, 141.54, 160.69]</t>
+          <t>[31.53, 44.78, 15.53, 17.22, 24.27]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[8824.85, 14418.22, 12716.85, 11487.73, 18491.29]</t>
+          <t>[1529.84, 2534.6, 1379.61, 1184.79, 2073.9]</t>
         </is>
       </c>
     </row>
@@ -1662,47 +1662,47 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[10, 12, 14, 10, 12]</t>
+          <t>[2, 4, 2, 2, 2]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[52, 28, 30, 30, 30]</t>
+          <t>[18, 28, 30, 30, 32]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[42, 16, 16, 20, 18]</t>
+          <t>[16, 24, 28, 28, 30]</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[280, 154, 76, 194, 153]</t>
+          <t>[107, 64, 40, 90, 69]</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[262.25, 154.6, 75.78999999999999, 194.5, 153.26]</t>
+          <t>[100.98233349429945, 62.66400883071935, 40.78088123253275, 89.8014896330416, 67.68738397769584]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[261.57, 148.23, 66.07, 168.68, 138.5]</t>
+          <t>[94.33560246937714, 58.14522537110198, 39.88761265803473, 89.8014896330416, 57.74347231065979]</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>[115.57, 53.46, 21.31, 63.66, 50.97]</t>
+          <t>[37.81, 16.92, 10.24, 25.39, 23.26]</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>[107.75, 67.67, 54.83, 62.26, 60.17]</t>
+          <t>[58.47, 20.56, 14.6, 17.34, 19.09]</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[23794.65, 10107.46, 4939.33, 10928.98, 9499.21]</t>
+          <t>[5964.5, 2174.97, 1925.46, 2607.35, 2218.26]</t>
         </is>
       </c>
     </row>

--- a/[3] Test Input/RESULTS_MT10_ASR_control.xlsx
+++ b/[3] Test Input/RESULTS_MT10_ASR_control.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,40 +461,30 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
         </is>
@@ -523,45 +513,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2]</t>
+          <t>[32, 32, 30, 32, 18]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[32, 32, 30, 32, 18]</t>
+          <t>[25, 27, 22, 32, 22]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[30, 30, 28, 30, 16]</t>
+          <t>[25.38432536246007, 25.65562228907383, 22.637424771691286, 30.20702925634899, 21.055345419588107]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[25, 27, 22, 32, 22]</t>
+          <t>[24.488733549795544, 20.792596898080696, 21.90925965538881, 30.20702925634899, 17.112852241244006]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[25.38432536246007, 25.65562228907383, 22.637424771691286, 30.20702925634899, 21.055345419588107]</t>
+          <t>[7.64, 9.42, 6.71, 10.23, 7.58]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[24.488733549795544, 20.792596898080696, 21.90925965538881, 30.20702925634899, 17.112852241244006]</t>
+          <t>[30.78, 26.14, 20.41, 18.78, 33.41]</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
-        <is>
-          <t>[7.64, 9.42, 6.71, 10.23, 7.58]</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[30.78, 26.14, 20.41, 18.78, 33.41]</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
         <is>
           <t>[818.58, 927.47, 741.52, 875.51, 1108.61]</t>
         </is>
@@ -590,45 +570,35 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2]</t>
+          <t>[18, 18, 18, 18, 18]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[18, 18, 18, 18, 18]</t>
+          <t>[72, 62, 75, 85, 90]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[16, 16, 16, 16, 16]</t>
+          <t>[67.33186921398152, 59.51588660241525, 75.09303114367599, 84.06926227586692, 90.09334089904041]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[72, 62, 75, 85, 90]</t>
+          <t>[59.46740559373287, 56.13682270742888, 63.48661924788408, 79.36716310901421, 73.45837648739328]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[67.33186921398152, 59.51588660241525, 75.09303114367599, 84.06926227586692, 90.09334089904041]</t>
+          <t>[22.67, 20.93, 25.43, 30.5, 26.25]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[59.46740559373287, 56.13682270742888, 63.48661924788408, 79.36716310901421, 73.45837648739328]</t>
+          <t>[53.6, 47.55, 46.6, 60.98, 43.33]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
-        <is>
-          <t>[22.67, 20.93, 25.43, 30.5, 26.25]</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[53.6, 47.55, 46.6, 60.98, 43.33]</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
         <is>
           <t>[3563.43, 3106.72, 3724.65, 5078.9, 3702.37]</t>
         </is>
@@ -657,45 +627,35 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2]</t>
+          <t>[30, 18, 18, 32, 18]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[30, 18, 18, 32, 18]</t>
+          <t>[60, 60, 49, 44, 57]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[28, 16, 16, 30, 16]</t>
+          <t>[59.56011157592228, 57.705863846748755, 47.877359897819126, 42.916255694684374, 56.3731671608812]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[60, 60, 49, 44, 57]</t>
+          <t>[56.6261127928761, 46.34200643515348, 47.40829497955933, 39.05171785185907, 50.23895179892441]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[59.56011157592228, 57.705863846748755, 47.877359897819126, 42.916255694684374, 56.3731671608812]</t>
+          <t>[20.75, 19.41, 17.12, 13.89, 18.97]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[56.6261127928761, 46.34200643515348, 47.40829497955933, 39.05171785185907, 50.23895179892441]</t>
+          <t>[30.32, 51.62, 36.98, 13.88, 38.3]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
-        <is>
-          <t>[20.75, 19.41, 17.12, 13.89, 18.97]</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>[30.32, 51.62, 36.98, 13.88, 38.3]</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
         <is>
           <t>[2140.69, 3012.86, 2391.2, 1029.9, 2596.43]</t>
         </is>
@@ -724,45 +684,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2]</t>
+          <t>[30, 32, 32, 32, 30]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[30, 32, 32, 32, 30]</t>
+          <t>[43, 30, 39, 37, 36]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[28, 30, 30, 30, 28]</t>
+          <t>[41.12019646503102, 30.452316091004946, 39.61350580288511, 34.98393766149912, 35.93257314412856]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[43, 30, 39, 37, 36]</t>
+          <t>[41.12019646503102, 30.452316091004946, 38.74762774826288, 33.00498265175969, 35.93257314412856]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[41.12019646503102, 30.452316091004946, 39.61350580288511, 34.98393766149912, 35.93257314412856]</t>
+          <t>[12.88, 8.72, 12.02, 12.79, 10.85]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[41.12019646503102, 30.452316091004946, 38.74762774826288, 33.00498265175969, 35.93257314412856]</t>
+          <t>[26.48, 17.47, 30.99, 27.69, 17.31]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
-        <is>
-          <t>[12.88, 8.72, 12.02, 12.79, 10.85]</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>[26.48, 17.47, 30.99, 27.69, 17.31]</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
         <is>
           <t>[1371.13, 884.79, 1247.49, 1375.47, 1210.83]</t>
         </is>
@@ -791,45 +741,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2]</t>
+          <t>[32, 32, 32, 32, 32]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[32, 32, 32, 32, 32]</t>
+          <t>[27, 31, 37, 25, 33]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[30, 30, 30, 30, 30]</t>
+          <t>[26.93527658653701, 31.360505336293844, 37.15048993961251, 22.78345483947321, 33.646009330555955]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[27, 31, 37, 25, 33]</t>
+          <t>[24.9431190778128, 29.708568802965726, 37.15048993961251, 20.42170865310544, 27.53495970897432]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[26.93527658653701, 31.360505336293844, 37.15048993961251, 22.78345483947321, 33.646009330555955]</t>
+          <t>[8.71, 10.11, 12.69, 8.94, 11.39]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[24.9431190778128, 29.708568802965726, 37.15048993961251, 20.42170865310544, 27.53495970897432]</t>
+          <t>[17.57, 27.0, 29.16, 29.58, 27.47]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
-        <is>
-          <t>[8.71, 10.11, 12.69, 8.94, 11.39]</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>[17.57, 27.0, 29.16, 29.58, 27.47]</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
         <is>
           <t>[957.09, 1050.31, 1388.3, 1021.22, 1084.77]</t>
         </is>
@@ -858,45 +798,35 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[2, 4, 2]</t>
+          <t>[32, 30, 18]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[32, 30, 18]</t>
+          <t>[66, 27, 89]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[30, 26, 16]</t>
+          <t>[65.91728336018656, 26.397321755142094, 83.92468097205786]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[66, 27, 89]</t>
+          <t>[60.82418214033048, 25.667769647892197, 83.05649496134936]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[65.91728336018656, 26.397321755142094, 83.92468097205786]</t>
+          <t>[23.11, 8.01, 26.53]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[60.82418214033048, 25.667769647892197, 83.05649496134936]</t>
+          <t>[43.79, 14.64, 37.45]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
-        <is>
-          <t>[23.11, 8.01, 26.53]</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>[43.79, 14.64, 37.45]</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
         <is>
           <t>[2661.69, 1244.46, 3566.88]</t>
         </is>
@@ -925,45 +855,35 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2]</t>
+          <t>[18, 34, 32, 32]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[18, 34, 32, 32]</t>
+          <t>[72, 41, 43, 30]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[16, 32, 30, 30]</t>
+          <t>[66.08783773399121, 38.71454946791789, 41.95894556339081, 30.351612888224714]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[72, 41, 43, 30]</t>
+          <t>[66.08783773399121, 31.639282290600583, 39.544197764736, 28.576996662999267]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[66.08783773399121, 38.71454946791789, 41.95894556339081, 30.351612888224714]</t>
+          <t>[22.96, 14.25, 12.86, 8.7]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[66.08783773399121, 31.639282290600583, 39.544197764736, 28.576996662999267]</t>
+          <t>[63.76, 25.63, 22.53, 11.47]</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
-        <is>
-          <t>[22.96, 14.25, 12.86, 8.7]</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>[63.76, 25.63, 22.53, 11.47]</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
         <is>
           <t>[3612.15, 1392.28, 1309.96, 1199.78]</t>
         </is>
@@ -992,45 +912,35 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2]</t>
+          <t>[18, 18, 18, 34, 18]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[18, 18, 18, 34, 18]</t>
+          <t>[96, 100, 97, 138, 106]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[16, 16, 16, 32, 16]</t>
+          <t>[95.3795264551288, 100.27729525471257, 90.03549800091675, 135.7353606553156, 103.47302644997546]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[96, 100, 97, 138, 106]</t>
+          <t>[75.99373125427044, 80.33373257947517, 80.27475339655322, 115.13509343382337, 98.63758955116539]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[95.3795264551288, 100.27729525471257, 90.03549800091675, 135.7353606553156, 103.47302644997546]</t>
+          <t>[36.84, 37.63, 35.66, 46.66, 35.78]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[75.99373125427044, 80.33373257947517, 80.27475339655322, 115.13509343382337, 98.63758955116539]</t>
+          <t>[51.97, 48.92, 43.66, 27.12, 42.23]</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
-        <is>
-          <t>[36.84, 37.63, 35.66, 46.66, 35.78]</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>[51.97, 48.92, 43.66, 27.12, 42.23]</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
         <is>
           <t>[5990.67, 5978.77, 5191.62, 4329.52, 5682.66]</t>
         </is>
@@ -1059,45 +969,35 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2]</t>
+          <t>[20, 18, 18, 18, 18]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[20, 18, 18, 18, 18]</t>
+          <t>[84, 73, 47, 42, 43]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[18, 16, 16, 16, 16]</t>
+          <t>[81.20235566271414, 69.38793486353342, 44.29834017062474, 39.542181751975576, 41.289888007884194]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[84, 73, 47, 42, 43]</t>
+          <t>[81.20235566271414, 69.38793486353342, 40.99997254031807, 39.542181751975576, 41.22979718486903]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[81.20235566271414, 69.38793486353342, 44.29834017062474, 39.542181751975576, 41.289888007884194]</t>
+          <t>[26.16, 22.36, 14.24, 12.56, 13.97]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[81.20235566271414, 69.38793486353342, 40.99997254031807, 39.542181751975576, 41.22979718486903]</t>
+          <t>[49.55, 31.15, 32.43, 27.35, 29.18]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
-        <is>
-          <t>[26.16, 22.36, 14.24, 12.56, 13.97]</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>[49.55, 31.15, 32.43, 27.35, 29.18]</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
         <is>
           <t>[3851.49, 3016.02, 2245.7, 1747.31, 1891.65]</t>
         </is>
@@ -1126,45 +1026,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2]</t>
+          <t>[18, 18, 18, 16, 18]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[18, 18, 18, 16, 18]</t>
+          <t>[62, 62, 67, 58, 44]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[16, 16, 16, 14, 16]</t>
+          <t>[62.37045768848734, 60.662502415840336, 66.47860825427651, 56.93378271095315, 42.86550483082758]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[62, 62, 67, 58, 44]</t>
+          <t>[57.55167726080439, 59.93165715923392, 57.56533219867126, 56.93378271095315, 38.7553861831861]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[62.37045768848734, 60.662502415840336, 66.47860825427651, 56.93378271095315, 42.86550483082758]</t>
+          <t>[21.37, 21.37, 24.93, 20.33, 13.67]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[57.55167726080439, 59.93165715923392, 57.56533219867126, 56.93378271095315, 38.7553861831861]</t>
+          <t>[48.09, 51.85, 50.4, 38.86, 35.65]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
-        <is>
-          <t>[21.37, 21.37, 24.93, 20.33, 13.67]</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>[48.09, 51.85, 50.4, 38.86, 35.65]</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
         <is>
           <t>[3088.05, 3300.27, 3979.53, 2981.17, 1952.73]</t>
         </is>
@@ -1193,45 +1083,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[2, 4, 2, 2]</t>
+          <t>[30, 30, 32, 18]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[30, 30, 32, 18]</t>
+          <t>[53, 27, 40, 54]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[28, 26, 30, 16]</t>
+          <t>[51.81049156540605, 27.108129348238954, 39.041522902292634, 53.96587962930976]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[53, 27, 40, 54]</t>
+          <t>[49.848754804992986, 25.044080715223387, 37.58861993140807, 43.31543239264254]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[51.81049156540605, 27.108129348238954, 39.041522902292634, 53.96587962930976]</t>
+          <t>[16.72, 8.04, 13.9, 17.99]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[49.848754804992986, 25.044080715223387, 37.58861993140807, 43.31543239264254]</t>
+          <t>[22.22, 61.81, 29.93, 39.99]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
-        <is>
-          <t>[16.72, 8.04, 13.9, 17.99]</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>[22.22, 61.81, 29.93, 39.99]</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
         <is>
           <t>[1853.96, 1468.77, 1860.87, 2474.69]</t>
         </is>
@@ -1260,45 +1140,35 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2]</t>
+          <t>[30, 18, 20, 18, 32]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[30, 18, 20, 18, 32]</t>
+          <t>[204, 139, 190, 103, 54]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[28, 16, 18, 16, 30]</t>
+          <t>[202.54609985741786, 121.21440387583445, 172.6694557491748, 102.95230070403932, 51.915759897970574]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[204, 139, 190, 103, 54]</t>
+          <t>[164.15409737290275, 109.53324350786829, 168.31137431660648, 82.5716887489271, 49.205638414600955]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[202.54609985741786, 121.21440387583445, 172.6694557491748, 102.95230070403932, 51.915759897970574]</t>
+          <t>[62.38, 47.13, 59.88, 36.18, 16.11]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[164.15409737290275, 109.53324350786829, 168.31137431660648, 82.5716887489271, 49.205638414600955]</t>
+          <t>[20.66, 41.61, 31.88, 42.33, 24.3]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
-        <is>
-          <t>[62.38, 47.13, 59.88, 36.18, 16.11]</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>[20.66, 41.61, 31.88, 42.33, 24.3]</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
         <is>
           <t>[4677.17, 6660.5, 6380.36, 5177.92, 2553.56]</t>
         </is>
@@ -1327,45 +1197,35 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 8]</t>
+          <t>[32, 34, 32, 40]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[32, 34, 32, 40]</t>
+          <t>[44, 25, 20, 9]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[30, 32, 30, 32]</t>
+          <t>[43.96099362509933, 25.00110396943478, 18.895587863112098, 9.440221313030001]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[44, 25, 20, 9]</t>
+          <t>[43.94096479038257, 21.76242034320508, 17.78847674177972, 7.840086598496155]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[43.96099362509933, 25.00110396943478, 18.895587863112098, 9.440221313030001]</t>
+          <t>[12.64, 8.27, 5.99, 3.16]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[43.94096479038257, 21.76242034320508, 17.78847674177972, 7.840086598496155]</t>
+          <t>[14.54, 21.45, 10.38, 36.61]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
-        <is>
-          <t>[12.64, 8.27, 5.99, 3.16]</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>[14.54, 21.45, 10.38, 36.61]</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
         <is>
           <t>[999.47, 894.71, 872.19, 834.45]</t>
         </is>
@@ -1394,45 +1254,35 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2]</t>
+          <t>[18, 18, 32, 16, 18]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[18, 18, 32, 16, 18]</t>
+          <t>[90, 94, 60, 103, 87]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[16, 16, 30, 14, 16]</t>
+          <t>[86.94759913462204, 85.59668937837321, 59.57400176247319, 99.22199192144107, 80.06146997318687]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[90, 94, 60, 103, 87]</t>
+          <t>[79.49641819190725, 75.02406972567583, 53.70460585858445, 96.80713227039257, 80.06146997318687]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[86.94759913462204, 85.59668937837321, 59.57400176247319, 99.22199192144107, 80.06146997318687]</t>
+          <t>[30.19, 30.76, 20.74, 35.36, 28.84]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[79.49641819190725, 75.02406972567583, 53.70460585858445, 96.80713227039257, 80.06146997318687]</t>
+          <t>[37.96, 34.03, 24.42, 46.47, 31.68]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
-        <is>
-          <t>[30.19, 30.76, 20.74, 35.36, 28.84]</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>[37.96, 34.03, 24.42, 46.47, 31.68]</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
         <is>
           <t>[3790.51, 3765.53, 1971.07, 5051.8, 3597.65]</t>
         </is>
@@ -1461,45 +1311,35 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[2, 2, 2]</t>
+          <t>[20, 20, 30]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[20, 20, 30]</t>
+          <t>[104, 96, 71]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[18, 18, 28]</t>
+          <t>[103.81625057935068, 94.29757046135254, 68.9061928727269]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[104, 96, 71]</t>
+          <t>[101.83566817746512, 80.93849890669092, 59.20417353182569]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[103.81625057935068, 94.29757046135254, 68.9061928727269]</t>
+          <t>[32.83, 29.46, 22.16]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[101.83566817746512, 80.93849890669092, 59.20417353182569]</t>
+          <t>[31.87, 42.02, 17.79]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
-        <is>
-          <t>[32.83, 29.46, 22.16]</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>[31.87, 42.02, 17.79]</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
         <is>
           <t>[3984.16, 3663.98, 2348.84]</t>
         </is>
@@ -1528,45 +1368,35 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2]</t>
+          <t>[30, 30, 18, 32, 32]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[30, 30, 18, 32, 32]</t>
+          <t>[50, 55, 49, 47, 47]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[28, 28, 16, 30, 30]</t>
+          <t>[50.24312354134072, 55.47360611191227, 49.20532843477744, 46.66567113454356, 47.57247947680062]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[50, 55, 49, 47, 47]</t>
+          <t>[50.24312354134072, 55.47360611191227, 48.08882811168373, 46.66567113454356, 47.57247947680062]</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[50.24312354134072, 55.47360611191227, 49.20532843477744, 46.66567113454356, 47.57247947680062]</t>
+          <t>[17.54, 18.87, 18.02, 15.11, 15.07]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[50.24312354134072, 55.47360611191227, 48.08882811168373, 46.66567113454356, 47.57247947680062]</t>
+          <t>[26.3, 23.1, 46.56, 26.01, 29.97]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
-        <is>
-          <t>[17.54, 18.87, 18.02, 15.11, 15.07]</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>[26.3, 23.1, 46.56, 26.01, 29.97]</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
         <is>
           <t>[1832.66, 1612.2, 2605.52, 1368.06, 1478.62]</t>
         </is>
@@ -1595,45 +1425,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2]</t>
+          <t>[18, 18, 32, 32, 30]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[18, 18, 32, 32, 30]</t>
+          <t>[33, 51, 52, 46, 63]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[16, 16, 30, 30, 28]</t>
+          <t>[33.01268612137392, 50.202879651179046, 51.33451351031718, 45.80902315080341, 60.56684439617493]</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[33, 51, 52, 46, 63]</t>
+          <t>[26.993265754658037, 43.048422029936006, 51.33451351031718, 45.80902315080341, 57.097081766551256]</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[33.01268612137392, 50.202879651179046, 51.33451351031718, 45.80902315080341, 60.56684439617493]</t>
+          <t>[11.31, 17.25, 16.1, 15.28, 20.09]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[26.993265754658037, 43.048422029936006, 51.33451351031718, 45.80902315080341, 57.097081766551256]</t>
+          <t>[31.53, 44.78, 15.53, 17.22, 24.27]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
-        <is>
-          <t>[11.31, 17.25, 16.1, 15.28, 20.09]</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>[31.53, 44.78, 15.53, 17.22, 24.27]</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
         <is>
           <t>[1529.84, 2534.6, 1379.61, 1184.79, 2073.9]</t>
         </is>
@@ -1662,45 +1482,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[2, 4, 2, 2, 2]</t>
+          <t>[18, 28, 30, 30, 32]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[18, 28, 30, 30, 32]</t>
+          <t>[107, 64, 40, 90, 69]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[16, 24, 28, 28, 30]</t>
+          <t>[100.98233349429945, 62.66400883071935, 40.78088123253275, 89.8014896330416, 67.68738397769584]</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[107, 64, 40, 90, 69]</t>
+          <t>[94.33560246937714, 58.14522537110198, 39.88761265803473, 89.8014896330416, 57.74347231065979]</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[100.98233349429945, 62.66400883071935, 40.78088123253275, 89.8014896330416, 67.68738397769584]</t>
+          <t>[37.81, 16.92, 10.24, 25.39, 23.26]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[94.33560246937714, 58.14522537110198, 39.88761265803473, 89.8014896330416, 57.74347231065979]</t>
+          <t>[58.47, 20.56, 14.6, 17.34, 19.09]</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
-        <is>
-          <t>[37.81, 16.92, 10.24, 25.39, 23.26]</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>[58.47, 20.56, 14.6, 17.34, 19.09]</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
         <is>
           <t>[5964.5, 2174.97, 1925.46, 2607.35, 2218.26]</t>
         </is>

--- a/[3] Test Input/RESULTS_MT10_ASR_control.xlsx
+++ b/[3] Test Input/RESULTS_MT10_ASR_control.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,6 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>AUC</t>
         </is>
       </c>
@@ -538,12 +533,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[30.78, 26.14, 20.41, 18.78, 33.41]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[818.58, 927.47, 741.52, 875.51, 1108.61]</t>
+          <t>[547.28, 653.54, 478.78, 560.1, 765.52]</t>
         </is>
       </c>
     </row>
@@ -595,12 +585,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[53.6, 47.55, 46.6, 60.98, 43.33]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[3563.43, 3106.72, 3724.65, 5078.9, 3702.37]</t>
+          <t>[2312.32, 1991.05, 2372.04, 3031.94, 2631.06]</t>
         </is>
       </c>
     </row>
@@ -652,12 +637,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[30.32, 51.62, 36.98, 13.88, 38.3]</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>[2140.69, 3012.86, 2391.2, 1029.9, 2596.43]</t>
+          <t>[1366.06, 2056.77, 1558.2, 703.5, 1686.73]</t>
         </is>
       </c>
     </row>
@@ -709,12 +689,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[26.48, 17.47, 30.99, 27.69, 17.31]</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>[1371.13, 884.79, 1247.49, 1375.47, 1210.83]</t>
+          <t>[887.21, 555.08, 765.86, 876.82, 714.32]</t>
         </is>
       </c>
     </row>
@@ -766,12 +741,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[17.57, 27.0, 29.16, 29.58, 27.47]</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>[957.09, 1050.31, 1388.3, 1021.22, 1084.77]</t>
+          <t>[594.68, 644.18, 784.23, 726.28, 751.32]</t>
         </is>
       </c>
     </row>
@@ -823,12 +793,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[43.79, 14.64, 37.45]</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>[2661.69, 1244.46, 3566.88]</t>
+          <t>[1611.33, 789.17, 2457.93]</t>
         </is>
       </c>
     </row>
@@ -880,12 +845,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[63.76, 25.63, 22.53, 11.47]</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>[3612.15, 1392.28, 1309.96, 1199.78]</t>
+          <t>[2325.46, 1013.42, 856.45, 677.04]</t>
         </is>
       </c>
     </row>
@@ -937,12 +897,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[51.97, 48.92, 43.66, 27.12, 42.23]</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>[5990.67, 5978.77, 5191.62, 4329.52, 5682.66]</t>
+          <t>[3989.33, 3876.59, 3552.31, 3065.37, 3416.42]</t>
         </is>
       </c>
     </row>
@@ -994,12 +949,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[49.55, 31.15, 32.43, 27.35, 29.18]</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>[3851.49, 3016.02, 2245.7, 1747.31, 1891.65]</t>
+          <t>[2590.02, 2033.59, 1429.73, 1156.7, 1183.43]</t>
         </is>
       </c>
     </row>
@@ -1051,12 +1001,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[48.09, 51.85, 50.4, 38.86, 35.65]</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>[3088.05, 3300.27, 3979.53, 2981.17, 1952.73]</t>
+          <t>[1994.04, 1994.39, 2471.22, 1921.9, 1324.43]</t>
         </is>
       </c>
     </row>
@@ -1108,12 +1053,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[22.22, 61.81, 29.93, 39.99]</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>[1853.96, 1468.77, 1860.87, 2474.69]</t>
+          <t>[1080.44, 870.93, 1104.29, 1664.06]</t>
         </is>
       </c>
     </row>
@@ -1165,12 +1105,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[20.66, 41.61, 31.88, 42.33, 24.3]</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>[4677.17, 6660.5, 6380.36, 5177.92, 2553.56]</t>
+          <t>[3921.49, 4515.77, 5196.36, 3479.29, 1383.73]</t>
         </is>
       </c>
     </row>
@@ -1222,12 +1157,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[14.54, 21.45, 10.38, 36.61]</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>[999.47, 894.71, 872.19, 834.45]</t>
+          <t>[676.59, 589.63, 513.66, 592.21]</t>
         </is>
       </c>
     </row>
@@ -1279,12 +1209,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[37.96, 34.03, 24.42, 46.47, 31.68]</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>[3790.51, 3765.53, 1971.07, 5051.8, 3597.65]</t>
+          <t>[2651.16, 2690.75, 1363.64, 3336.93, 2298.88]</t>
         </is>
       </c>
     </row>
@@ -1336,12 +1261,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[31.87, 42.02, 17.79]</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>[3984.16, 3663.98, 2348.84]</t>
+          <t>[2601.35, 2483.31, 1442.84]</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1313,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[26.3, 23.1, 46.56, 26.01, 29.97]</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>[1832.66, 1612.2, 2605.52, 1368.06, 1478.62]</t>
+          <t>[1124.1, 1059.03, 1697.66, 881.81, 879.06]</t>
         </is>
       </c>
     </row>
@@ -1450,12 +1365,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[31.53, 44.78, 15.53, 17.22, 24.27]</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>[1529.84, 2534.6, 1379.61, 1184.79, 2073.9]</t>
+          <t>[1046.66, 1683.52, 915.29, 844.64, 1226.15]</t>
         </is>
       </c>
     </row>
@@ -1507,12 +1417,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[58.47, 20.56, 14.6, 17.34, 19.09]</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>[5964.5, 2174.97, 1925.46, 2607.35, 2218.26]</t>
+          <t>[3971.22, 1331.46, 1139.77, 1694.95, 1562.23]</t>
         </is>
       </c>
     </row>
